--- a/runtime/export/jkxm_qs.xlsx
+++ b/runtime/export/jkxm_qs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>纳税人识别号</t>
   </si>
@@ -69,6 +69,30 @@
   </si>
   <si>
     <t>其他税收收入</t>
+  </si>
+  <si>
+    <t>车辆购置税</t>
+  </si>
+  <si>
+    <t>文化事业建设费</t>
+  </si>
+  <si>
+    <t>水利建设专项收入</t>
+  </si>
+  <si>
+    <t>残疾人就业保障金</t>
+  </si>
+  <si>
+    <t>地方教育附加</t>
+  </si>
+  <si>
+    <t>税务部门罚没收入</t>
+  </si>
+  <si>
+    <t>教育费附加</t>
+  </si>
+  <si>
+    <t>其他收入</t>
   </si>
 </sst>
 </file>
@@ -76,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -94,13 +118,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,44 +144,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -183,9 +162,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,14 +185,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,15 +257,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,187 +274,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,17 +552,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -569,6 +582,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -577,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,7 +1074,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1071,10 +1095,17 @@
     <col min="16" max="16" width="11.8888888888889" style="2" customWidth="1"/>
     <col min="17" max="17" width="5.22222222222222" style="2" customWidth="1"/>
     <col min="18" max="18" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="19" max="19" width="11.8888888888889" style="2" customWidth="1"/>
+    <col min="20" max="20" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="21" max="22" width="18.5555555555556" style="2" customWidth="1"/>
+    <col min="23" max="23" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="24" max="24" width="18.5555555555556" style="2" customWidth="1"/>
+    <col min="25" max="25" width="11.8888888888889" style="2" customWidth="1"/>
+    <col min="26" max="26" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
+    <row r="1" s="1" customFormat="1" ht="17.1" customHeight="1" spans="1:26">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1128,12 +1159,36 @@
       </c>
       <c r="R1" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
   <protectedRanges>
-    <protectedRange sqref="2:6000" name="区域1" securityDescriptor=""/>
+    <protectedRange sqref="2:5999" name="区域1" securityDescriptor=""/>
   </protectedRanges>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/runtime/export/jkxm_qs.xlsx
+++ b/runtime/export/jkxm_qs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection lockStructure="1"/>
+  <workbookProtection workbookPassword="EC63" lockStructure="1"/>
   <bookViews>
     <workbookView windowWidth="21288" windowHeight="10535"/>
   </bookViews>
@@ -100,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -121,9 +121,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,7 +251,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,119 +260,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,43 +274,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,133 +442,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,45 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -550,11 +511,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +552,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -593,6 +569,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,7 +1186,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
+  <sheetProtection password="EC63" sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="2:5999" name="区域1" securityDescriptor=""/>
   </protectedRanges>

--- a/runtime/export/jkxm_qs.xlsx
+++ b/runtime/export/jkxm_qs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection workbookPassword="EC63" lockStructure="1"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView windowWidth="21288" windowHeight="10535"/>
   </bookViews>
@@ -100,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -122,6 +122,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -129,67 +183,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,21 +250,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -226,40 +258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,60 +274,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,12 +394,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -437,24 +455,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +496,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -507,21 +546,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,15 +576,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -578,21 +593,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,7 +1186,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="EC63" sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="2:5999" name="区域1" securityDescriptor=""/>
   </protectedRanges>
